--- a/Documentação/Requisitos/tasks-app-web.xlsx
+++ b/Documentação/Requisitos/tasks-app-web.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Digital Solutions\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Digital Solutions\Desktop\ShadowTech\Documentação\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6389103-DBAF-4DB3-BF8E-25F41ED3479A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B912B5-C8E0-41A7-861C-6FEF3FD55D5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F0F20B02-A09F-4FB0-A8DF-B5AA3D8F1155}"/>
   </bookViews>
@@ -593,7 +593,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -891,9 +891,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B6C25A-A5EC-4569-A201-62FA02B8C7B9}">
   <dimension ref="B2:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -952,7 +952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="25.5">
+    <row r="4" spans="2:8" ht="15.75">
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
         <v>9</v>
@@ -973,7 +973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="40.5">
+    <row r="5" spans="2:8" ht="27">
       <c r="B5" s="6"/>
       <c r="C5" s="7" t="s">
         <v>14</v>
@@ -1015,7 +1015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="25.5">
+    <row r="7" spans="2:8" ht="15.75">
       <c r="B7" s="6"/>
       <c r="C7" s="7" t="s">
         <v>21</v>
@@ -1036,7 +1036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="25.5">
+    <row r="8" spans="2:8" ht="15.75">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
         <v>26</v>
@@ -1057,7 +1057,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="25.5">
+    <row r="9" spans="2:8" ht="15.75">
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
         <v>29</v>
@@ -1099,7 +1099,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="31.5">
+    <row r="11" spans="2:8" ht="15.75">
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
         <v>35</v>
@@ -1120,7 +1120,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="31.5">
+    <row r="12" spans="2:8" ht="15.75">
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
         <v>38</v>
@@ -1204,7 +1204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="25.5">
+    <row r="16" spans="2:8" ht="15.75">
       <c r="B16" s="6"/>
       <c r="C16" s="7" t="s">
         <v>47</v>
@@ -1246,7 +1246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="40.5">
+    <row r="18" spans="2:8" ht="27">
       <c r="B18" s="6"/>
       <c r="C18" s="7" t="s">
         <v>52</v>
@@ -1288,7 +1288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="25.5">
+    <row r="20" spans="2:8" ht="15.75">
       <c r="B20" s="6"/>
       <c r="C20" s="7" t="s">
         <v>55</v>
@@ -1309,7 +1309,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="25.5">
+    <row r="21" spans="2:8" ht="15.75">
       <c r="B21" s="6"/>
       <c r="C21" s="7" t="s">
         <v>56</v>
@@ -1330,7 +1330,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="25.5">
+    <row r="22" spans="2:8" ht="15.75">
       <c r="B22" s="6"/>
       <c r="C22" s="7" t="s">
         <v>57</v>
@@ -1372,7 +1372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="31.5">
+    <row r="24" spans="2:8" ht="15.75">
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
         <v>59</v>
@@ -1393,7 +1393,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="31.5">
+    <row r="25" spans="2:8" ht="15.75">
       <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
         <v>59</v>
@@ -1561,7 +1561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:8" s="11" customFormat="1" ht="25.5">
+    <row r="33" spans="2:8" s="11" customFormat="1" ht="15.75">
       <c r="B33" s="6">
         <v>5</v>
       </c>
